--- a/WorkBot/main/backend/ordering/OrderFiles/Regional Distributors, Inc/Regional Distributors, Inc._TRIPHAMMER_20250307.xlsx
+++ b/WorkBot/main/backend/ordering/OrderFiles/Regional Distributors, Inc/Regional Distributors, Inc._TRIPHAMMER_20250307.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,6 +556,114 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>33282</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cont 12 oz - Combo (microwavable)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>14909</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lid - Deli (6/32oz)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>24.82</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>22435</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Container - Deli (16oz)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>35.88</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>35.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>22434</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Container - Deli (8oz)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>31.75</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>31.75</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
